--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -101,213 +101,213 @@
     <t>it-CH</t>
   </si>
   <si>
-    <t>6CDBm</t>
-  </si>
-  <si>
-    <t>350P9</t>
-  </si>
-  <si>
-    <t>7WTcr</t>
-  </si>
-  <si>
-    <t>WMqLD</t>
-  </si>
-  <si>
-    <t>AjEYz</t>
-  </si>
-  <si>
-    <t>gn3mF</t>
-  </si>
-  <si>
-    <t>6bJ0M</t>
-  </si>
-  <si>
-    <t>qkbyl</t>
-  </si>
-  <si>
-    <t>aYkO9</t>
-  </si>
-  <si>
-    <t>8o3K2</t>
-  </si>
-  <si>
-    <t>YQQ8r</t>
-  </si>
-  <si>
-    <t>V88Db</t>
-  </si>
-  <si>
-    <t>ASX47</t>
-  </si>
-  <si>
-    <t>NaKWK</t>
-  </si>
-  <si>
-    <t>6dlLT</t>
-  </si>
-  <si>
-    <t>5ZP16</t>
-  </si>
-  <si>
-    <t>xBt5p</t>
-  </si>
-  <si>
-    <t>idqsL</t>
-  </si>
-  <si>
-    <t>xLwRk</t>
-  </si>
-  <si>
-    <t>1WEeg</t>
-  </si>
-  <si>
-    <t>XffHs</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/6CDBm/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/350P9/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/7WTcr/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/WMqLD/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/AjEYz/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/gn3mF/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/6bJ0M/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/qkbyl/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/aYkO9/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/8o3K2/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/YQQ8r/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/V88Db/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/ASX47/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/NaKWK/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/6dlLT/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/5ZP16/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/xBt5p/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/idqsL/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/xLwRk/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/1WEeg/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/XffHs/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-6CDBm" src="https://datawrapper.dwcdn.net/6CDBm/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="399" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Etat actuel des votes au 18 juin 2023" aria-label="Barres empilées" id="datawrapper-chart-350P9" src="https://datawrapper.dwcdn.net/350P9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="399" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Situazione attuale delle votazioni del 18 giugno 2023" aria-label="Barre impilate" id="datawrapper-chart-7WTcr" src="https://datawrapper.dwcdn.net/7WTcr/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="413" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Bundesbeschluss über eine besondere Besteuerung grosser Unternehmensgruppen (Umsetzung des OECD/G20-Projekts zur Besteuerung grosser Unternehmensgruppen)" aria-label="Karte" id="datawrapper-chart-WMqLD" src="https://datawrapper.dwcdn.net/WMqLD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Bundesbeschluss über eine besondere Besteuerung grosser Unternehmensgruppen (Umsetzung des OECD/G20-Projekts zur Besteuerung grosser Unternehmensgruppen)" aria-label="Karte" id="datawrapper-chart-AjEYz" src="https://datawrapper.dwcdn.net/AjEYz/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Arrêté fédéral sur une imposition particulière des grands groupes d’entreprises (Mise en œuvre du projet conjoint de l’OCDE et du G20 sur l’imposition des grands groupes d’entreprises)" aria-label="Map" id="datawrapper-chart-gn3mF" src="https://datawrapper.dwcdn.net/gn3mF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Arrêté fédéral sur une imposition particulière des grands groupes d’entreprises (Mise en œuvre du projet conjoint de l’OCDE et du G20 sur l’imposition des grands groupes d’entreprises)" aria-label="Map" id="datawrapper-chart-6bJ0M" src="https://datawrapper.dwcdn.net/6bJ0M/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Decreto federale concernente un’imposizione speciale dei grandi gruppi di imprese (Attuazione del progetto dell’OSCE e del G20 sull’imposizione dei grandi gruppi di imprese)" aria-label="Mappa" id="datawrapper-chart-qkbyl" src="https://datawrapper.dwcdn.net/qkbyl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Decreto federale concernente un’imposizione speciale dei grandi gruppi di imprese (Attuazione del progetto dell’OSCE e del G20 sull’imposizione dei grandi gruppi di imprese)" aria-label="Mappa" id="datawrapper-chart-aYkO9" src="https://datawrapper.dwcdn.net/aYkO9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (KlG)" aria-label="Karte" id="datawrapper-chart-8o3K2" src="https://datawrapper.dwcdn.net/8o3K2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (KlG)" aria-label="Karte" id="datawrapper-chart-YQQ8r" src="https://datawrapper.dwcdn.net/YQQ8r/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Loi fédérale sur les objectifs en matière de protection du climat, sur l’innovation et sur le renforcement de la sécurité énergétique (LCl)" aria-label="Map" id="datawrapper-chart-V88Db" src="https://datawrapper.dwcdn.net/V88Db/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Loi fédérale sur les objectifs en matière de protection du climat, sur l’innovation et sur le renforcement de la sécurité énergétique (LCl)" aria-label="Map" id="datawrapper-chart-ASX47" src="https://datawrapper.dwcdn.net/ASX47/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Legge federale sugli obiettivi in materia di protezione del clima, l’innovazione e il rafforzamento della sicurezza energetica (LOCli)" aria-label="Mappa" id="datawrapper-chart-NaKWK" src="https://datawrapper.dwcdn.net/NaKWK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Legge federale sugli obiettivi in materia di protezione del clima, l’innovazione e il rafforzamento della sicurezza energetica (LOCli)" aria-label="Mappa" id="datawrapper-chart-6dlLT" src="https://datawrapper.dwcdn.net/6dlLT/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Änderung des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-19-Gesetz)" aria-label="Karte" id="datawrapper-chart-5ZP16" src="https://datawrapper.dwcdn.net/5ZP16/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Änderung des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-19-Gesetz)" aria-label="Karte" id="datawrapper-chart-xBt5p" src="https://datawrapper.dwcdn.net/xBt5p/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Modification de la loi fédérale sur les bases légales des ordonnances du Conseil fédéral visant à surmonter l’épidémie de COVID-19 (Loi COVID-19)" aria-label="Map" id="datawrapper-chart-idqsL" src="https://datawrapper.dwcdn.net/idqsL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Modification de la loi fédérale sur les bases légales des ordonnances du Conseil fédéral visant à surmonter l’épidémie de COVID-19 (Loi COVID-19)" aria-label="Map" id="datawrapper-chart-xLwRk" src="https://datawrapper.dwcdn.net/xLwRk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Modifica della legge federale sulle basi legali delle ordinanze del Consiglio federale volte a far fronte all’epidemia di COVID-19 (Legge COVID-19)" aria-label="Mappa" id="datawrapper-chart-1WEeg" src="https://datawrapper.dwcdn.net/1WEeg/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="510" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Modifica della legge federale sulle basi legali delle ordinanze del Consiglio federale volte a far fronte all’epidemia di COVID-19 (Legge COVID-19)" aria-label="Mappa" id="datawrapper-chart-XffHs" src="https://datawrapper.dwcdn.net/XffHs/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+    <t>uW51v</t>
+  </si>
+  <si>
+    <t>j4c2S</t>
+  </si>
+  <si>
+    <t>2Kv8W</t>
+  </si>
+  <si>
+    <t>GwAFG</t>
+  </si>
+  <si>
+    <t>XIKIy</t>
+  </si>
+  <si>
+    <t>RfbP9</t>
+  </si>
+  <si>
+    <t>f5FwZ</t>
+  </si>
+  <si>
+    <t>Rm3OV</t>
+  </si>
+  <si>
+    <t>wA8hw</t>
+  </si>
+  <si>
+    <t>X2GZ2</t>
+  </si>
+  <si>
+    <t>NIhCZ</t>
+  </si>
+  <si>
+    <t>Px2XF</t>
+  </si>
+  <si>
+    <t>UUAl0</t>
+  </si>
+  <si>
+    <t>C7ve3</t>
+  </si>
+  <si>
+    <t>VDX8X</t>
+  </si>
+  <si>
+    <t>x27Qd</t>
+  </si>
+  <si>
+    <t>bulwg</t>
+  </si>
+  <si>
+    <t>zpWBd</t>
+  </si>
+  <si>
+    <t>xN29L</t>
+  </si>
+  <si>
+    <t>v1sVB</t>
+  </si>
+  <si>
+    <t>pE93m</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/uW51v/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/j4c2S/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/2Kv8W/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/GwAFG/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/XIKIy/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/RfbP9/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/f5FwZ/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Rm3OV/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/wA8hw/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/X2GZ2/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/NIhCZ/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Px2XF/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/UUAl0/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/C7ve3/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/VDX8X/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/x27Qd/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/bulwg/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/zpWBd/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xN29L/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/v1sVB/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/pE93m/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-uW51v" src="https://datawrapper.dwcdn.net/uW51v/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Etat actuel des votes au 18 juin 2023" aria-label="Barres empilées" id="datawrapper-chart-j4c2S" src="https://datawrapper.dwcdn.net/j4c2S/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Situazione attuale delle votazioni del 18 giugno 2023" aria-label="Barre impilate" id="datawrapper-chart-2Kv8W" src="https://datawrapper.dwcdn.net/2Kv8W/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Bundesbeschluss über eine besondere Besteuerung grosser Unternehmensgruppen (Umsetzung des OECD/G20-Projekts zur Besteuerung grosser Unternehmensgruppen)" aria-label="Karte" id="datawrapper-chart-GwAFG" src="https://datawrapper.dwcdn.net/GwAFG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Bundesbeschluss über eine besondere Besteuerung grosser Unternehmensgruppen (Umsetzung des OECD/G20-Projekts zur Besteuerung grosser Unternehmensgruppen)" aria-label="Karte" id="datawrapper-chart-XIKIy" src="https://datawrapper.dwcdn.net/XIKIy/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Arrêté fédéral sur une imposition particulière des grands groupes d’entreprises (Mise en œuvre du projet conjoint de l’OCDE et du G20 sur l’imposition des grands groupes d’entreprises)" aria-label="Map" id="datawrapper-chart-RfbP9" src="https://datawrapper.dwcdn.net/RfbP9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Arrêté fédéral sur une imposition particulière des grands groupes d’entreprises (Mise en œuvre du projet conjoint de l’OCDE et du G20 sur l’imposition des grands groupes d’entreprises)" aria-label="Map" id="datawrapper-chart-f5FwZ" src="https://datawrapper.dwcdn.net/f5FwZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Decreto federale concernente un’imposizione speciale dei grandi gruppi di imprese (Attuazione del progetto dell’OSCE e del G20 sull’imposizione dei grandi gruppi di imprese)" aria-label="Mappa" id="datawrapper-chart-Rm3OV" src="https://datawrapper.dwcdn.net/Rm3OV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Decreto federale concernente un’imposizione speciale dei grandi gruppi di imprese (Attuazione del progetto dell’OSCE e del G20 sull’imposizione dei grandi gruppi di imprese)" aria-label="Mappa" id="datawrapper-chart-wA8hw" src="https://datawrapper.dwcdn.net/wA8hw/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (KlG)" aria-label="Karte" id="datawrapper-chart-X2GZ2" src="https://datawrapper.dwcdn.net/X2GZ2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (KlG)" aria-label="Karte" id="datawrapper-chart-NIhCZ" src="https://datawrapper.dwcdn.net/NIhCZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi fédérale sur les objectifs en matière de protection du climat, sur l’innovation et sur le renforcement de la sécurité énergétique (LCl)" aria-label="Map" id="datawrapper-chart-Px2XF" src="https://datawrapper.dwcdn.net/Px2XF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi fédérale sur les objectifs en matière de protection du climat, sur l’innovation et sur le renforcement de la sécurité énergétique (LCl)" aria-label="Map" id="datawrapper-chart-UUAl0" src="https://datawrapper.dwcdn.net/UUAl0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale sugli obiettivi in materia di protezione del clima, l’innovazione e il rafforzamento della sicurezza energetica (LOCli)" aria-label="Mappa" id="datawrapper-chart-C7ve3" src="https://datawrapper.dwcdn.net/C7ve3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale sugli obiettivi in materia di protezione del clima, l’innovazione e il rafforzamento della sicurezza energetica (LOCli)" aria-label="Mappa" id="datawrapper-chart-VDX8X" src="https://datawrapper.dwcdn.net/VDX8X/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-19-Gesetz)" aria-label="Karte" id="datawrapper-chart-x27Qd" src="https://datawrapper.dwcdn.net/x27Qd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung des Bundesgesetzes über die gesetzlichen Grundlagen für Verordnungen des Bundesrates zur Bewältigung der Covid-19-Epidemie (Covid-19-Gesetz)" aria-label="Karte" id="datawrapper-chart-bulwg" src="https://datawrapper.dwcdn.net/bulwg/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modification de la loi fédérale sur les bases légales des ordonnances du Conseil fédéral visant à surmonter l’épidémie de COVID-19 (Loi COVID-19)" aria-label="Map" id="datawrapper-chart-zpWBd" src="https://datawrapper.dwcdn.net/zpWBd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modification de la loi fédérale sur les bases légales des ordonnances du Conseil fédéral visant à surmonter l’épidémie de COVID-19 (Loi COVID-19)" aria-label="Map" id="datawrapper-chart-xN29L" src="https://datawrapper.dwcdn.net/xN29L/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modifica della legge federale sulle basi legali delle ordinanze del Consiglio federale volte a far fronte all’epidemia di COVID-19 (Legge COVID-19)" aria-label="Mappa" id="datawrapper-chart-v1sVB" src="https://datawrapper.dwcdn.net/v1sVB/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modifica della legge federale sulle basi legali delle ordinanze del Consiglio federale volte a far fronte all’epidemia di COVID-19 (Legge COVID-19)" aria-label="Mappa" id="datawrapper-chart-pE93m" src="https://datawrapper.dwcdn.net/pE93m/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
 &lt;/script&gt;</t>
   </si>
 </sst>

--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_92E8F56AC3574AFC124848F1C280BB8422ABD813" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3F1FEA-20F4-4120-9ADF-7E99377CE1B1}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -314,11 +322,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -330,7 +337,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -348,18 +355,329 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -405,7 +723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -428,7 +746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -451,7 +769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -474,7 +792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -497,7 +815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -520,7 +838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -543,7 +861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -566,7 +884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -589,7 +907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -612,7 +930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -635,7 +953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -658,7 +976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -681,7 +999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -704,7 +1022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -727,7 +1045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -750,7 +1068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -773,7 +1091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -796,7 +1114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -819,7 +1137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -842,7 +1160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -866,6 +1184,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20230618_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_92E8F56AC3574AFC124848F1C280BB8422ABD813" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3F1FEA-20F4-4120-9ADF-7E99377CE1B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC414F-B3DC-4C11-9B4B-EC8DAAA4A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -331,13 +331,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,8 +366,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -670,37 +685,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="168.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -723,7 +746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -746,7 +769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -769,7 +792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -792,7 +815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -815,7 +838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -838,7 +861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -861,7 +884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -884,7 +907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -907,7 +930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -930,7 +953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -953,7 +976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -976,7 +999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1022,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1185,5 +1208,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>